--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -115,19 +115,19 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeCommon_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT13_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT7_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeHOT9_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCodeYJ_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeCommon_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT13_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT7_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT9_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeYJ_CS</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -115,19 +115,19 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeCommon_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT13_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT7_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeHOT9_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCodeYJ_CS</t>
+    <t>urn:oid:1.2.392.100495.20.1.81</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.402.1</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.403.2</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.200119.4.403.1</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.1.73</t>
   </si>
 </sst>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -82,7 +82,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -124,7 +124,7 @@
     <t>urn:oid:1.2.392.200119.4.403.2</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200119.4.403.1</t>
+    <t>urn:oid:1.2.392.200119.4.403.12345</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.1.73</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
     <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from JP Core Medicati 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from JP Core Medicati 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
@@ -124,7 +124,7 @@
     <t>urn:oid:1.2.392.200119.4.403.2</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.200119.4.403.12345</t>
+    <t>urn:oid:1.2.392.200119.4.403.1</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.1.73</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -82,7 +82,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
     <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from JP Core Medicati 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from JP Core Medicati 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
     <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
     <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from JP Core Medicati 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from JP Core Medicati 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -8,10 +8,10 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from unknown" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown 3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from unknown 4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from unknown" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from unknown 2" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown 3" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from unknown 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from unknown 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -378,15 +381,15 @@
         <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -408,28 +411,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -451,28 +454,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -494,28 +497,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -537,28 +540,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -580,28 +583,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -97,7 +97,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright 厚生労働省 &amp; MEDIS-DC 医療情報システム開発センター &amp; （株）医薬情報研究所</t>
   </si>
   <si>
     <t>Immutable</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from unknown 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from unknown 5" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/ValueSet-jp-medicationcode-vs.xlsx
@@ -7,11 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from JP Core Medicati" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from JP Core Medicati 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from JP Core Medicati 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from JP Core Medicati 4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from unknown 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown 4" r:id="rId7" sheetId="5"/>
+    <sheet name="Include from unknown 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
